--- a/Models/results_df_Classes_1&2removed.xlsx
+++ b/Models/results_df_Classes_1&2removed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b149b67652cc3594/Documents/GitHub/Depression_Gait_Balance/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_5611E2E3D58BCF31232C4CC35D2D0B9F797A39B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C62B7F-4B2C-4BB4-870A-C2FE3432C753}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_5611E2E3D58BCF31232C4CC35D2D0B9F797A39B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9FF8013-4E0B-4FD1-B0FC-1A1AFD320266}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1131,14 +1131,14 @@
   <dimension ref="A1:U127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+      <selection activeCell="H93" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Models/results_df_Classes_1&2removed.xlsx
+++ b/Models/results_df_Classes_1&2removed.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\GitHub\Depression_Gait_Balance\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b149b67652cc3594/Documents/GitHub/Depression_Gait_Balance/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F022B83-A948-49D6-855E-C0D5BB09B838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_5611E2E3D58BCF31232C4CC35D2D0B9F797A39B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C62B7F-4B2C-4BB4-870A-C2FE3432C753}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$127</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="231">
   <si>
     <t>y</t>
   </si>
@@ -80,6 +83,9 @@
   </si>
   <si>
     <t>neg_log_loss</t>
+  </si>
+  <si>
+    <t>Kappa_Coefficient</t>
   </si>
   <si>
     <t>CurrentPOMSdepression</t>
@@ -780,10 +786,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,22 +1128,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T127"/>
+  <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:XFD110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.9296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1164,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1183,7 +1188,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -1195,99 +1200,105 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.99466666666666659</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.99333333333333329</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="S2" s="2">
+        <v>-4.765941937382442E-8</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-7.3581758121158271E-5</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.996</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="I3" t="s">
         <v>181</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0.99466666666666659</v>
-      </c>
-      <c r="P2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0.99333333333333329</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="S2" s="3">
-        <v>-4.765941937382442E-8</v>
-      </c>
-      <c r="T2" s="3">
-        <v>-7.3581758121158271E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.995</v>
-      </c>
-      <c r="I3" t="s">
-        <v>180</v>
       </c>
       <c r="J3">
         <v>0.9</v>
@@ -1307,7 +1318,7 @@
       <c r="O3">
         <v>0.99145098039215696</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3">
         <v>0.99937500000000001</v>
       </c>
       <c r="Q3">
@@ -1319,37 +1330,40 @@
       <c r="S3">
         <v>-2.946317423458775E-8</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3">
         <v>-7.8942847012170787E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="3">
+        <v>134</v>
+      </c>
+      <c r="H4" s="2">
         <v>0.95800000000000007</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J4">
         <v>0.6</v>
@@ -1369,7 +1383,7 @@
       <c r="O4">
         <v>0.91656792717086832</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4">
         <v>0.95843750000000005</v>
       </c>
       <c r="Q4">
@@ -1381,37 +1395,40 @@
       <c r="S4">
         <v>-4.5722161627227198E-11</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4">
         <v>-2.1421106758118761E-6</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U4">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="3">
+        <v>133</v>
+      </c>
+      <c r="H5" s="2">
         <v>0.93800000000000017</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J5">
         <v>0.7</v>
@@ -1431,7 +1448,7 @@
       <c r="O5">
         <v>0.89256407563025209</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5">
         <v>0.91562500000000002</v>
       </c>
       <c r="Q5">
@@ -1443,37 +1460,40 @@
       <c r="S5">
         <v>-2.3759556333096772E-3</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5">
         <v>-1.6751954671271819E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="3">
+        <v>134</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.93300000000000027</v>
       </c>
       <c r="I6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J6">
         <v>0.7</v>
@@ -1493,7 +1513,7 @@
       <c r="O6">
         <v>0.87367600373482712</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6">
         <v>0.87749999999999995</v>
       </c>
       <c r="Q6">
@@ -1505,37 +1525,40 @@
       <c r="S6">
         <v>-5.2110514954343608E-2</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6">
         <v>-0.43514148510116341</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U6">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7" s="3">
+        <v>129</v>
+      </c>
+      <c r="H7" s="2">
         <v>0.92100000000000004</v>
       </c>
       <c r="I7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J7">
         <v>0.6</v>
@@ -1555,7 +1578,7 @@
       <c r="O7">
         <v>0.87324112978524748</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7">
         <v>0.88312500000000005</v>
       </c>
       <c r="Q7">
@@ -1567,37 +1590,40 @@
       <c r="S7">
         <v>-0.1</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7">
         <v>-3.4538776394910689</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U7">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="3">
+        <v>127</v>
+      </c>
+      <c r="H8" s="2">
         <v>0.91500000000000048</v>
       </c>
       <c r="I8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J8">
         <v>0.7</v>
@@ -1617,7 +1643,7 @@
       <c r="O8">
         <v>0.82000816993464032</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8">
         <v>0.95343750000000005</v>
       </c>
       <c r="Q8">
@@ -1629,37 +1655,40 @@
       <c r="S8">
         <v>-6.9734999999999991E-2</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8">
         <v>-0.24214484496511579</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U8">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="3">
+        <v>129</v>
+      </c>
+      <c r="H9" s="2">
         <v>0.90600000000000014</v>
       </c>
       <c r="I9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J9">
         <v>0.6</v>
@@ -1679,7 +1708,7 @@
       <c r="O9">
         <v>0.82940939452704154</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9">
         <v>0.83437499999999998</v>
       </c>
       <c r="Q9">
@@ -1691,37 +1720,40 @@
       <c r="S9">
         <v>-0.1</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9">
         <v>-3.4538776394910689</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U9">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="3">
+        <v>131</v>
+      </c>
+      <c r="H10" s="2">
         <v>0.90000000000000013</v>
       </c>
       <c r="I10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J10">
         <v>0.7</v>
@@ -1741,7 +1773,7 @@
       <c r="O10">
         <v>0.78439869281045749</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10">
         <v>0.9559375</v>
       </c>
       <c r="Q10">
@@ -1753,37 +1785,40 @@
       <c r="S10">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10">
         <v>-0.2017244494494462</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U10">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="3">
+        <v>131</v>
+      </c>
+      <c r="H11" s="2">
         <v>0.89700000000000013</v>
       </c>
       <c r="I11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J11">
         <v>0.7</v>
@@ -1803,7 +1838,7 @@
       <c r="O11">
         <v>0.78199183006535933</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11">
         <v>0.9403125</v>
       </c>
       <c r="Q11">
@@ -1815,37 +1850,40 @@
       <c r="S11">
         <v>-7.2000000000000008E-2</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11">
         <v>-0.21814965279804779</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U11">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="3">
+        <v>127</v>
+      </c>
+      <c r="H12" s="2">
         <v>0.87700000000000022</v>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J12">
         <v>0.7</v>
@@ -1865,7 +1903,7 @@
       <c r="O12">
         <v>0.73008333333333342</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12">
         <v>0.94312499999999999</v>
       </c>
       <c r="Q12">
@@ -1877,37 +1915,40 @@
       <c r="S12">
         <v>-8.5034999999999999E-2</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12">
         <v>-0.28897167404219481</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U12">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="3">
+        <v>130</v>
+      </c>
+      <c r="H13" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J13">
         <v>0.8</v>
@@ -1927,7 +1968,7 @@
       <c r="O13">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13">
         <v>0.96499999999999997</v>
       </c>
       <c r="Q13">
@@ -1937,39 +1978,42 @@
         <v>0.5</v>
       </c>
       <c r="S13">
-        <v>-6.8477187782391175E-2</v>
-      </c>
-      <c r="T13" s="3">
-        <v>-0.2129947747224957</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-7.3995700187075492E-2</v>
+      </c>
+      <c r="T13">
+        <v>-0.22008991451208329</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="3">
+        <v>130</v>
+      </c>
+      <c r="H14" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J14">
         <v>0.8</v>
@@ -1989,7 +2033,7 @@
       <c r="O14">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14">
         <v>0.96</v>
       </c>
       <c r="Q14">
@@ -1999,39 +2043,42 @@
         <v>0.5</v>
       </c>
       <c r="S14">
-        <v>-5.7196941607402019E-2</v>
-      </c>
-      <c r="T14" s="3">
-        <v>-0.19507744768142621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-5.4891120511732852E-2</v>
+      </c>
+      <c r="T14">
+        <v>-0.1984368577876901</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="3">
+        <v>135</v>
+      </c>
+      <c r="H15" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J15">
         <v>0.8</v>
@@ -2051,7 +2098,7 @@
       <c r="O15">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15">
         <v>0.5</v>
       </c>
       <c r="Q15">
@@ -2063,37 +2110,40 @@
       <c r="S15">
         <v>-0.2</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="3">
+        <v>135</v>
+      </c>
+      <c r="H16" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2113,7 +2163,7 @@
       <c r="O16">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16">
         <v>0.5</v>
       </c>
       <c r="Q16">
@@ -2125,37 +2175,40 @@
       <c r="S16">
         <v>-0.2</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="3">
+        <v>132</v>
+      </c>
+      <c r="H17" s="2">
         <v>0.78099999999999992</v>
       </c>
       <c r="I17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J17">
         <v>0.5</v>
@@ -2175,7 +2228,7 @@
       <c r="O17">
         <v>0.54504411764705885</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17">
         <v>0.87124999999999997</v>
       </c>
       <c r="Q17">
@@ -2187,37 +2240,40 @@
       <c r="S17">
         <v>-0.19016368874046741</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17">
         <v>-0.99670671196956495</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U17">
+        <v>9.0909090909090939E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="3">
+        <v>133</v>
+      </c>
+      <c r="H18" s="2">
         <v>0.75199999999999989</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J18">
         <v>0.5</v>
@@ -2237,7 +2293,7 @@
       <c r="O18">
         <v>0.43328758169934639</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18">
         <v>0.35187499999999999</v>
       </c>
       <c r="Q18">
@@ -2249,37 +2305,40 @@
       <c r="S18">
         <v>-0.19779231303600661</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18">
         <v>-0.64190971930412788</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="3">
+        <v>132</v>
+      </c>
+      <c r="H19" s="2">
         <v>0.72799999999999998</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J19">
         <v>0.3</v>
@@ -2299,7 +2358,7 @@
       <c r="O19">
         <v>0.48304473712561963</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19">
         <v>0.53312499999999996</v>
       </c>
       <c r="Q19">
@@ -2311,99 +2370,105 @@
       <c r="S19">
         <v>-0.20394614375950729</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19">
         <v>-0.72001912360171194</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="U19">
+        <v>9.0909090909090939E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.9986666666666667</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.99833333333333341</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.99937500000000001</v>
+      </c>
+      <c r="S20" s="2">
+        <v>-4.3586333266696867E-8</v>
+      </c>
+      <c r="T20" s="2">
+        <v>-8.5362511993120603E-5</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.99900000000000011</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.9930000000000001</v>
+      </c>
+      <c r="I21" t="s">
         <v>195</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0.9986666666666667</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0.99833333333333341</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0.99937500000000001</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-4.3586333266696867E-8</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-8.5362511993120603E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.9930000000000001</v>
-      </c>
-      <c r="I21" t="s">
-        <v>194</v>
       </c>
       <c r="J21">
         <v>0.8</v>
@@ -2423,7 +2488,7 @@
       <c r="O21">
         <v>0.98923914565826321</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21">
         <v>0.99937500000000001</v>
       </c>
       <c r="Q21">
@@ -2435,37 +2500,40 @@
       <c r="S21">
         <v>-3.3518438148860128E-8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21">
         <v>-7.551215468890061E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="3">
+        <v>133</v>
+      </c>
+      <c r="H22" s="2">
         <v>0.96600000000000008</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J22">
         <v>0.7</v>
@@ -2485,7 +2553,7 @@
       <c r="O22">
         <v>0.93968359010270774</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22">
         <v>0.94187500000000002</v>
       </c>
       <c r="Q22">
@@ -2497,37 +2565,40 @@
       <c r="S22">
         <v>-2.1216790091541689E-5</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22">
         <v>-1.4560929660475299E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="3">
+        <v>134</v>
+      </c>
+      <c r="H23" s="2">
         <v>0.9600000000000003</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J23">
         <v>0.8</v>
@@ -2547,7 +2618,7 @@
       <c r="O23">
         <v>0.92637826797385603</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23">
         <v>0.91500000000000004</v>
       </c>
       <c r="Q23">
@@ -2559,37 +2630,40 @@
       <c r="S23">
         <v>-1.551421790529338E-16</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23">
         <v>-9.9644867355917226E-9</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U23">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="3">
+        <v>129</v>
+      </c>
+      <c r="H24" s="2">
         <v>0.94000000000000028</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J24">
         <v>0.6</v>
@@ -2609,7 +2683,7 @@
       <c r="O24">
         <v>0.89504995331465909</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24">
         <v>0.89124999999999999</v>
       </c>
       <c r="Q24">
@@ -2621,37 +2695,40 @@
       <c r="S24">
         <v>-0.05</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24">
         <v>-1.7269388197455351</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U24">
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="3">
+        <v>134</v>
+      </c>
+      <c r="H25" s="2">
         <v>0.93900000000000006</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J25">
         <v>0.7</v>
@@ -2671,7 +2748,7 @@
       <c r="O25">
         <v>0.88572992530345462</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25">
         <v>0.92874999999999996</v>
       </c>
       <c r="Q25">
@@ -2683,37 +2760,40 @@
       <c r="S25">
         <v>-8.2393273928068642E-8</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25">
         <v>-8.8929348939731752E-5</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U25">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="3">
+        <v>129</v>
+      </c>
+      <c r="H26" s="2">
         <v>0.90700000000000014</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J26">
         <v>0.7</v>
@@ -2733,7 +2813,7 @@
       <c r="O26">
         <v>0.83955053688141912</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26">
         <v>0.84062499999999996</v>
       </c>
       <c r="Q26">
@@ -2745,37 +2825,40 @@
       <c r="S26">
         <v>-0.1</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26">
         <v>-3.4538776394910689</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U26">
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="3">
+        <v>131</v>
+      </c>
+      <c r="H27" s="2">
         <v>0.90100000000000025</v>
       </c>
       <c r="I27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J27">
         <v>0.7</v>
@@ -2795,7 +2878,7 @@
       <c r="O27">
         <v>0.78635947712418286</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27">
         <v>0.94343750000000004</v>
       </c>
       <c r="Q27">
@@ -2807,37 +2890,40 @@
       <c r="S27">
         <v>-7.2000000000000008E-2</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27">
         <v>-0.2055725015062527</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U27">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="3">
+        <v>131</v>
+      </c>
+      <c r="H28" s="2">
         <v>0.90000000000000013</v>
       </c>
       <c r="I28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J28">
         <v>0.7</v>
@@ -2857,7 +2943,7 @@
       <c r="O28">
         <v>0.78439869281045749</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28">
         <v>0.95187500000000003</v>
       </c>
       <c r="Q28">
@@ -2869,37 +2955,40 @@
       <c r="S28">
         <v>-7.2000000000000008E-2</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28">
         <v>-0.2055725015062527</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U28">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="3">
+        <v>127</v>
+      </c>
+      <c r="H29" s="2">
         <v>0.89300000000000024</v>
       </c>
       <c r="I29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J29">
         <v>0.7</v>
@@ -2919,7 +3008,7 @@
       <c r="O29">
         <v>0.7923543417366945</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29">
         <v>0.9190625</v>
       </c>
       <c r="Q29">
@@ -2931,37 +3020,40 @@
       <c r="S29">
         <v>-7.9585000000000017E-2</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29">
         <v>-0.25851400631805488</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U29">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="3">
+        <v>127</v>
+      </c>
+      <c r="H30" s="2">
         <v>0.87800000000000011</v>
       </c>
       <c r="I30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J30">
         <v>0.7</v>
@@ -2981,7 +3073,7 @@
       <c r="O30">
         <v>0.71482026143790844</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30">
         <v>0.94437499999999996</v>
       </c>
       <c r="Q30">
@@ -2993,37 +3085,40 @@
       <c r="S30">
         <v>-8.5555000000000006E-2</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30">
         <v>-0.2926513621415302</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U30">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G31" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="3">
+        <v>132</v>
+      </c>
+      <c r="H31" s="2">
         <v>0.85899999999999987</v>
       </c>
       <c r="I31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J31">
         <v>0.6</v>
@@ -3043,7 +3138,7 @@
       <c r="O31">
         <v>0.75942598577892695</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31">
         <v>0.92125000000000001</v>
       </c>
       <c r="Q31">
@@ -3055,37 +3150,40 @@
       <c r="S31">
         <v>-9.3914500965725428E-2</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T31">
         <v>-0.29525236495680018</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U31">
+        <v>-0.36363636363636348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" s="3">
+        <v>130</v>
+      </c>
+      <c r="H32" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J32">
         <v>0.8</v>
@@ -3105,7 +3203,7 @@
       <c r="O32">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32">
         <v>0.96499999999999997</v>
       </c>
       <c r="Q32">
@@ -3115,39 +3213,42 @@
         <v>0.5</v>
       </c>
       <c r="S32">
-        <v>-6.7108094556216705E-2</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-0.21987531059127749</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-6.4883580537262786E-2</v>
+      </c>
+      <c r="T32">
+        <v>-0.2194648661060975</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="3">
+        <v>130</v>
+      </c>
+      <c r="H33" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J33">
         <v>0.8</v>
@@ -3167,7 +3268,7 @@
       <c r="O33">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33">
         <v>0.96</v>
       </c>
       <c r="Q33">
@@ -3177,39 +3278,42 @@
         <v>0.5</v>
       </c>
       <c r="S33">
-        <v>-5.6335921476827311E-2</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-0.18866575639892591</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-5.6837311368221052E-2</v>
+      </c>
+      <c r="T33">
+        <v>-0.19984101487621969</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="3">
+        <v>135</v>
+      </c>
+      <c r="H34" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J34">
         <v>0.8</v>
@@ -3229,7 +3333,7 @@
       <c r="O34">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34">
         <v>0.5</v>
       </c>
       <c r="Q34">
@@ -3241,37 +3345,40 @@
       <c r="S34">
         <v>-0.2</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T34">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" s="3">
+        <v>135</v>
+      </c>
+      <c r="H35" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J35">
         <v>0.8</v>
@@ -3291,7 +3398,7 @@
       <c r="O35">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35">
         <v>0.5</v>
       </c>
       <c r="Q35">
@@ -3303,37 +3410,40 @@
       <c r="S35">
         <v>-0.2</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="3">
+        <v>132</v>
+      </c>
+      <c r="H36" s="2">
         <v>0.79200000000000015</v>
       </c>
       <c r="I36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J36">
         <v>0.5</v>
@@ -3353,7 +3463,7 @@
       <c r="O36">
         <v>0.60493028621705103</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36">
         <v>0.83374999999999999</v>
       </c>
       <c r="Q36">
@@ -3365,37 +3475,40 @@
       <c r="S36">
         <v>-0.15392777157088439</v>
       </c>
-      <c r="T36" s="3">
+      <c r="T36">
         <v>-0.60095504811952583</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U36">
+        <v>-0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="3">
+        <v>133</v>
+      </c>
+      <c r="H37" s="2">
         <v>0.75599999999999978</v>
       </c>
       <c r="I37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J37">
         <v>0.4</v>
@@ -3415,7 +3528,7 @@
       <c r="O37">
         <v>0.4295401493930906</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37">
         <v>0.36687500000000001</v>
       </c>
       <c r="Q37">
@@ -3427,99 +3540,105 @@
       <c r="S37">
         <v>-0.1958034192734272</v>
       </c>
-      <c r="T37" s="3">
+      <c r="T37">
         <v>-0.62406389993287126</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="U37">
+        <v>-0.19047619047619049</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0.99411764705882344</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0.99833333333333329</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="S38" s="2">
+        <v>-2.3962639931205711E-9</v>
+      </c>
+      <c r="T38" s="2">
+        <v>-2.2141436250908689E-5</v>
+      </c>
+      <c r="U38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0.997</v>
-      </c>
-      <c r="I38" s="3" t="s">
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="I39" t="s">
         <v>208</v>
-      </c>
-      <c r="J38" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="K38" s="3">
-        <v>1</v>
-      </c>
-      <c r="L38" s="3">
-        <v>1</v>
-      </c>
-      <c r="M38" s="3">
-        <v>1</v>
-      </c>
-      <c r="N38" s="3">
-        <v>1</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0.99411764705882344</v>
-      </c>
-      <c r="P38" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>0.99833333333333329</v>
-      </c>
-      <c r="R38" s="3">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="S38" s="3">
-        <v>-2.3962639931205711E-9</v>
-      </c>
-      <c r="T38" s="3">
-        <v>-2.2141436250908689E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0.995</v>
-      </c>
-      <c r="I39" t="s">
-        <v>207</v>
       </c>
       <c r="J39">
         <v>0.8</v>
@@ -3539,7 +3658,7 @@
       <c r="O39">
         <v>0.99224754901960777</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39">
         <v>0.99875000000000003</v>
       </c>
       <c r="Q39">
@@ -3551,37 +3670,40 @@
       <c r="S39">
         <v>-8.6981992918620044E-8</v>
       </c>
-      <c r="T39" s="3">
+      <c r="T39">
         <v>-1.1218084323020579E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G40" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40" s="3">
+        <v>133</v>
+      </c>
+      <c r="H40" s="2">
         <v>0.95700000000000018</v>
       </c>
       <c r="I40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J40">
         <v>0.8</v>
@@ -3601,7 +3723,7 @@
       <c r="O40">
         <v>0.92934080298786181</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40">
         <v>0.97124999999999995</v>
       </c>
       <c r="Q40">
@@ -3613,37 +3735,40 @@
       <c r="S40">
         <v>-9.0368894208693479E-8</v>
       </c>
-      <c r="T40" s="3">
+      <c r="T40">
         <v>-9.5628643999557864E-5</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
-        <v>133</v>
-      </c>
-      <c r="H41" s="3">
+        <v>134</v>
+      </c>
+      <c r="H41" s="2">
         <v>0.95700000000000018</v>
       </c>
       <c r="I41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J41">
         <v>0.8</v>
@@ -3663,7 +3788,7 @@
       <c r="O41">
         <v>0.91306652661064414</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41">
         <v>0.95937499999999998</v>
       </c>
       <c r="Q41">
@@ -3675,37 +3800,40 @@
       <c r="S41">
         <v>-5.6860355993749578E-12</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41">
         <v>-7.597381661433551E-7</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U41">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
-        <v>133</v>
-      </c>
-      <c r="H42" s="3">
+        <v>134</v>
+      </c>
+      <c r="H42" s="2">
         <v>0.92900000000000016</v>
       </c>
       <c r="I42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J42">
         <v>0.7</v>
@@ -3725,7 +3853,7 @@
       <c r="O42">
         <v>0.86435397364073818</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42">
         <v>0.89531249999999996</v>
       </c>
       <c r="Q42">
@@ -3737,37 +3865,40 @@
       <c r="S42">
         <v>-3.452957668003583E-3</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42">
         <v>-2.0625505624559979E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U42">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G43" t="s">
-        <v>128</v>
-      </c>
-      <c r="H43" s="3">
+        <v>129</v>
+      </c>
+      <c r="H43" s="2">
         <v>0.91900000000000015</v>
       </c>
       <c r="I43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J43">
         <v>0.7</v>
@@ -3787,7 +3918,7 @@
       <c r="O43">
         <v>0.87610607448107425</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43">
         <v>0.88937500000000003</v>
       </c>
       <c r="Q43">
@@ -3799,37 +3930,40 @@
       <c r="S43">
         <v>-0.1</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43">
         <v>-3.4538776394910689</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U43">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G44" t="s">
-        <v>128</v>
-      </c>
-      <c r="H44" s="3">
+        <v>129</v>
+      </c>
+      <c r="H44" s="2">
         <v>0.91000000000000025</v>
       </c>
       <c r="I44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J44">
         <v>0.6</v>
@@ -3849,7 +3983,7 @@
       <c r="O44">
         <v>0.84246228363140108</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44">
         <v>0.84624999999999995</v>
       </c>
       <c r="Q44">
@@ -3861,37 +3995,40 @@
       <c r="S44">
         <v>-0.1</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44">
         <v>-3.4538776394910689</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U44">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G45" t="s">
-        <v>126</v>
-      </c>
-      <c r="H45" s="3">
+        <v>127</v>
+      </c>
+      <c r="H45" s="2">
         <v>0.90500000000000014</v>
       </c>
       <c r="I45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J45">
         <v>0.8</v>
@@ -3911,7 +4048,7 @@
       <c r="O45">
         <v>0.78125326797385608</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45">
         <v>0.93</v>
       </c>
       <c r="Q45">
@@ -3923,37 +4060,40 @@
       <c r="S45">
         <v>-8.6334999999999995E-2</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45">
         <v>-0.29544186123555088</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U45">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" s="3">
+        <v>131</v>
+      </c>
+      <c r="H46" s="2">
         <v>0.90000000000000013</v>
       </c>
       <c r="I46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J46">
         <v>0.7</v>
@@ -3973,7 +4113,7 @@
       <c r="O46">
         <v>0.78439869281045749</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46">
         <v>0.95781249999999996</v>
       </c>
       <c r="Q46">
@@ -3985,37 +4125,40 @@
       <c r="S46">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46">
         <v>-0.2017244494494462</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U46">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G47" t="s">
-        <v>130</v>
-      </c>
-      <c r="H47" s="3">
+        <v>131</v>
+      </c>
+      <c r="H47" s="2">
         <v>0.89900000000000024</v>
       </c>
       <c r="I47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J47">
         <v>0.7</v>
@@ -4035,7 +4178,7 @@
       <c r="O47">
         <v>0.78646160130718945</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47">
         <v>0.95374999999999999</v>
       </c>
       <c r="Q47">
@@ -4047,37 +4190,40 @@
       <c r="S47">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47">
         <v>-0.2055725015062527</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U47">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G48" t="s">
-        <v>126</v>
-      </c>
-      <c r="H48" s="3">
+        <v>127</v>
+      </c>
+      <c r="H48" s="2">
         <v>0.89700000000000035</v>
       </c>
       <c r="I48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J48">
         <v>0.7</v>
@@ -4097,7 +4243,7 @@
       <c r="O48">
         <v>0.80474718092365127</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48">
         <v>0.91781250000000003</v>
       </c>
       <c r="Q48">
@@ -4109,37 +4255,40 @@
       <c r="S48">
         <v>-8.2305000000000003E-2</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48">
         <v>-0.27831832686967672</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U48">
+        <v>0.34782608695652167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G49" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="3">
+        <v>132</v>
+      </c>
+      <c r="H49" s="2">
         <v>0.81500000000000017</v>
       </c>
       <c r="I49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J49">
         <v>0.5</v>
@@ -4159,7 +4308,7 @@
       <c r="O49">
         <v>0.64690394491129777</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49">
         <v>0.84250000000000003</v>
       </c>
       <c r="Q49">
@@ -4171,37 +4320,40 @@
       <c r="S49">
         <v>-0.15627986136628011</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49">
         <v>-0.6748869209740832</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U49">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G50" t="s">
-        <v>129</v>
-      </c>
-      <c r="H50" s="3">
+        <v>130</v>
+      </c>
+      <c r="H50" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J50">
         <v>0.8</v>
@@ -4221,7 +4373,7 @@
       <c r="O50">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50">
         <v>0.96437499999999998</v>
       </c>
       <c r="Q50">
@@ -4231,39 +4383,42 @@
         <v>0.5</v>
       </c>
       <c r="S50">
-        <v>-6.7448830517189334E-2</v>
-      </c>
-      <c r="T50" s="3">
-        <v>-0.21412621910764429</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-6.8414769964314087E-2</v>
+      </c>
+      <c r="T50">
+        <v>-0.22561421265133891</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G51" t="s">
-        <v>129</v>
-      </c>
-      <c r="H51" s="3">
+        <v>130</v>
+      </c>
+      <c r="H51" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J51">
         <v>0.8</v>
@@ -4283,7 +4438,7 @@
       <c r="O51">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51">
         <v>0.96062499999999995</v>
       </c>
       <c r="Q51">
@@ -4293,39 +4448,42 @@
         <v>0.5</v>
       </c>
       <c r="S51">
-        <v>-5.2186636318450837E-2</v>
-      </c>
-      <c r="T51" s="3">
-        <v>-0.182334589284743</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-5.7293957075149317E-2</v>
+      </c>
+      <c r="T51">
+        <v>-0.19466250581422559</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H52" s="3">
+        <v>135</v>
+      </c>
+      <c r="H52" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J52">
         <v>0.8</v>
@@ -4345,7 +4503,7 @@
       <c r="O52">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52">
         <v>0.5</v>
       </c>
       <c r="Q52">
@@ -4357,37 +4515,40 @@
       <c r="S52">
         <v>-0.2</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G53" t="s">
-        <v>134</v>
-      </c>
-      <c r="H53" s="3">
+        <v>135</v>
+      </c>
+      <c r="H53" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J53">
         <v>0.8</v>
@@ -4407,7 +4568,7 @@
       <c r="O53">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P53">
         <v>0.5</v>
       </c>
       <c r="Q53">
@@ -4419,37 +4580,40 @@
       <c r="S53">
         <v>-0.2</v>
       </c>
-      <c r="T53" s="3">
+      <c r="T53">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G54" t="s">
-        <v>132</v>
-      </c>
-      <c r="H54" s="3">
+        <v>133</v>
+      </c>
+      <c r="H54" s="2">
         <v>0.7589999999999999</v>
       </c>
       <c r="I54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J54">
         <v>0.5</v>
@@ -4469,7 +4633,7 @@
       <c r="O54">
         <v>0.44171568627450991</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54">
         <v>0.38124999999999998</v>
       </c>
       <c r="Q54">
@@ -4481,37 +4645,40 @@
       <c r="S54">
         <v>-0.1933245220872685</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54">
         <v>-0.60984675583644421</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U54">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G55" t="s">
-        <v>131</v>
-      </c>
-      <c r="H55" s="3">
+        <v>132</v>
+      </c>
+      <c r="H55" s="2">
         <v>0.68599999999999994</v>
       </c>
       <c r="I55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J55">
         <v>0.4</v>
@@ -4531,7 +4698,7 @@
       <c r="O55">
         <v>0.41937359943977598</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P55">
         <v>0.38062499999999999</v>
       </c>
       <c r="Q55">
@@ -4543,99 +4710,105 @@
       <c r="S55">
         <v>-0.22814701195289949</v>
       </c>
-      <c r="T55" s="3">
+      <c r="T55">
         <v>-0.71534980340078869</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="U55">
+        <v>-0.52173913043478271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1</v>
+      </c>
+      <c r="N56" s="2">
+        <v>1</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="R56" s="2">
+        <v>0.99812500000000004</v>
+      </c>
+      <c r="S56" s="2">
+        <v>-7.3798994419190004E-8</v>
+      </c>
+      <c r="T56" s="2">
+        <v>-1.042637149484209E-4</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
         <v>33</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0.997</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="J56" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="K56" s="3">
-        <v>1</v>
-      </c>
-      <c r="L56" s="3">
-        <v>1</v>
-      </c>
-      <c r="M56" s="3">
-        <v>1</v>
-      </c>
-      <c r="N56" s="3">
-        <v>1</v>
-      </c>
-      <c r="O56" s="3">
-        <v>0.996</v>
-      </c>
-      <c r="P56" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>0.995</v>
-      </c>
-      <c r="R56" s="3">
-        <v>0.99812500000000004</v>
-      </c>
-      <c r="S56" s="3">
-        <v>-7.3798994419190004E-8</v>
-      </c>
-      <c r="T56" s="3">
-        <v>-1.042637149484209E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" t="s">
-        <v>32</v>
-      </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G57" t="s">
-        <v>127</v>
-      </c>
-      <c r="H57" s="3">
+        <v>128</v>
+      </c>
+      <c r="H57" s="2">
         <v>0.9890000000000001</v>
       </c>
       <c r="I57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J57">
         <v>0.8</v>
@@ -4655,7 +4828,7 @@
       <c r="O57">
         <v>0.98253431372549016</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57">
         <v>0.99812500000000004</v>
       </c>
       <c r="Q57">
@@ -4667,37 +4840,40 @@
       <c r="S57">
         <v>-1.0242604988507451E-7</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57">
         <v>-1.1744135507121089E-4</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G58" t="s">
-        <v>132</v>
-      </c>
-      <c r="H58" s="3">
+        <v>133</v>
+      </c>
+      <c r="H58" s="2">
         <v>0.96200000000000019</v>
       </c>
       <c r="I58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J58">
         <v>0.7</v>
@@ -4717,7 +4893,7 @@
       <c r="O58">
         <v>0.93776982331394099</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58">
         <v>0.98624999999999996</v>
       </c>
       <c r="Q58">
@@ -4729,37 +4905,40 @@
       <c r="S58">
         <v>-1.138953060270922E-5</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58">
         <v>-1.0720536327819129E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G59" t="s">
-        <v>133</v>
-      </c>
-      <c r="H59" s="3">
+        <v>134</v>
+      </c>
+      <c r="H59" s="2">
         <v>0.96100000000000019</v>
       </c>
       <c r="I59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J59">
         <v>0.8</v>
@@ -4779,7 +4958,7 @@
       <c r="O59">
         <v>0.92586414565826314</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59">
         <v>0.96125000000000005</v>
       </c>
       <c r="Q59">
@@ -4791,37 +4970,40 @@
       <c r="S59">
         <v>-8.0369315140504396E-12</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59">
         <v>-9.1063155828202061E-7</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U59">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H60" s="3">
+        <v>134</v>
+      </c>
+      <c r="H60" s="2">
         <v>0.93000000000000027</v>
       </c>
       <c r="I60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J60">
         <v>0.7</v>
@@ -4841,7 +5023,7 @@
       <c r="O60">
         <v>0.86502135854341722</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60">
         <v>0.87656250000000002</v>
       </c>
       <c r="Q60">
@@ -4853,37 +5035,40 @@
       <c r="S60">
         <v>-9.9981606541026863E-2</v>
       </c>
-      <c r="T60" s="3">
+      <c r="T60">
         <v>-0.821261570053053</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U60">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G61" t="s">
-        <v>128</v>
-      </c>
-      <c r="H61" s="3">
+        <v>129</v>
+      </c>
+      <c r="H61" s="2">
         <v>0.92900000000000016</v>
       </c>
       <c r="I61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J61">
         <v>0.6</v>
@@ -4903,7 +5088,7 @@
       <c r="O61">
         <v>0.87112311463046754</v>
       </c>
-      <c r="P61" s="3">
+      <c r="P61">
         <v>0.86</v>
       </c>
       <c r="Q61">
@@ -4915,37 +5100,40 @@
       <c r="S61">
         <v>-0.1</v>
       </c>
-      <c r="T61" s="3">
+      <c r="T61">
         <v>-3.4538776394910689</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U61">
+        <v>0.34782608695652167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F62" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G62" t="s">
-        <v>128</v>
-      </c>
-      <c r="H62" s="3">
+        <v>129</v>
+      </c>
+      <c r="H62" s="2">
         <v>0.90600000000000025</v>
       </c>
       <c r="I62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J62">
         <v>0.6</v>
@@ -4965,7 +5153,7 @@
       <c r="O62">
         <v>0.84529283380018672</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62">
         <v>0.85499999999999998</v>
       </c>
       <c r="Q62">
@@ -4977,37 +5165,40 @@
       <c r="S62">
         <v>-0.1</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62">
         <v>-3.4538776394910689</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U62">
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G63" t="s">
-        <v>126</v>
-      </c>
-      <c r="H63" s="3">
+        <v>127</v>
+      </c>
+      <c r="H63" s="2">
         <v>0.90400000000000025</v>
       </c>
       <c r="I63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J63">
         <v>0.6</v>
@@ -5027,7 +5218,7 @@
       <c r="O63">
         <v>0.8082501167133519</v>
       </c>
-      <c r="P63" s="3">
+      <c r="P63">
         <v>0.91468749999999999</v>
       </c>
       <c r="Q63">
@@ -5039,37 +5230,40 @@
       <c r="S63">
         <v>-9.1605000000000006E-2</v>
       </c>
-      <c r="T63" s="3">
+      <c r="T63">
         <v>-0.295820954355134</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U63">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F64" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G64" t="s">
-        <v>130</v>
-      </c>
-      <c r="H64" s="3">
+        <v>131</v>
+      </c>
+      <c r="H64" s="2">
         <v>0.90000000000000013</v>
       </c>
       <c r="I64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J64">
         <v>0.7</v>
@@ -5089,7 +5283,7 @@
       <c r="O64">
         <v>0.78439869281045749</v>
       </c>
-      <c r="P64" s="3">
+      <c r="P64">
         <v>0.95781249999999996</v>
       </c>
       <c r="Q64">
@@ -5101,37 +5295,40 @@
       <c r="S64">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="T64" s="3">
+      <c r="T64">
         <v>-0.19787639739263971</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U64">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G65" t="s">
-        <v>130</v>
-      </c>
-      <c r="H65" s="3">
+        <v>131</v>
+      </c>
+      <c r="H65" s="2">
         <v>0.89600000000000024</v>
       </c>
       <c r="I65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J65">
         <v>0.7</v>
@@ -5151,7 +5348,7 @@
       <c r="O65">
         <v>0.78835947712418286</v>
       </c>
-      <c r="P65" s="3">
+      <c r="P65">
         <v>0.95281249999999995</v>
       </c>
       <c r="Q65">
@@ -5163,37 +5360,40 @@
       <c r="S65">
         <v>-7.2000000000000008E-2</v>
       </c>
-      <c r="T65" s="3">
+      <c r="T65">
         <v>-0.2055725015062527</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U65">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
-      </c>
-      <c r="H66" s="3">
+        <v>127</v>
+      </c>
+      <c r="H66" s="2">
         <v>0.88800000000000012</v>
       </c>
       <c r="I66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J66">
         <v>0.7</v>
@@ -5213,7 +5413,7 @@
       <c r="O66">
         <v>0.74301797385620916</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66">
         <v>0.92718750000000005</v>
       </c>
       <c r="Q66">
@@ -5225,37 +5425,40 @@
       <c r="S66">
         <v>-8.7549999999999989E-2</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66">
         <v>-0.30072992198998072</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U66">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s">
-        <v>129</v>
-      </c>
-      <c r="H67" s="3">
+        <v>130</v>
+      </c>
+      <c r="H67" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J67">
         <v>0.8</v>
@@ -5275,7 +5478,7 @@
       <c r="O67">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P67" s="3">
+      <c r="P67">
         <v>0.96437499999999998</v>
       </c>
       <c r="Q67">
@@ -5285,39 +5488,42 @@
         <v>0.5</v>
       </c>
       <c r="S67">
-        <v>-6.9407655660691486E-2</v>
-      </c>
-      <c r="T67" s="3">
-        <v>-0.22384869554585901</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-6.8882406073373786E-2</v>
+      </c>
+      <c r="T67">
+        <v>-0.22381300267043749</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G68" t="s">
-        <v>129</v>
-      </c>
-      <c r="H68" s="3">
+        <v>130</v>
+      </c>
+      <c r="H68" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J68">
         <v>0.8</v>
@@ -5337,7 +5543,7 @@
       <c r="O68">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P68" s="3">
+      <c r="P68">
         <v>0.95750000000000002</v>
       </c>
       <c r="Q68">
@@ -5347,39 +5553,42 @@
         <v>0.5</v>
       </c>
       <c r="S68">
-        <v>-5.6851071064185771E-2</v>
-      </c>
-      <c r="T68" s="3">
-        <v>-0.20428601472261601</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-5.810487165664463E-2</v>
+      </c>
+      <c r="T68">
+        <v>-0.20297842221531229</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G69" t="s">
-        <v>134</v>
-      </c>
-      <c r="H69" s="3">
+        <v>135</v>
+      </c>
+      <c r="H69" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J69">
         <v>0.8</v>
@@ -5399,7 +5608,7 @@
       <c r="O69">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P69" s="3">
+      <c r="P69">
         <v>0.5</v>
       </c>
       <c r="Q69">
@@ -5411,37 +5620,40 @@
       <c r="S69">
         <v>-0.2</v>
       </c>
-      <c r="T69" s="3">
+      <c r="T69">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s">
-        <v>134</v>
-      </c>
-      <c r="H70" s="3">
+        <v>135</v>
+      </c>
+      <c r="H70" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J70">
         <v>0.8</v>
@@ -5461,7 +5673,7 @@
       <c r="O70">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P70" s="3">
+      <c r="P70">
         <v>0.5</v>
       </c>
       <c r="Q70">
@@ -5473,37 +5685,40 @@
       <c r="S70">
         <v>-0.2</v>
       </c>
-      <c r="T70" s="3">
+      <c r="T70">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G71" t="s">
-        <v>131</v>
-      </c>
-      <c r="H71" s="3">
+        <v>132</v>
+      </c>
+      <c r="H71" s="2">
         <v>0.78200000000000014</v>
       </c>
       <c r="I71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J71">
         <v>0.5</v>
@@ -5523,7 +5738,7 @@
       <c r="O71">
         <v>0.62263621345974296</v>
       </c>
-      <c r="P71" s="3">
+      <c r="P71">
         <v>0.81125000000000003</v>
       </c>
       <c r="Q71">
@@ -5535,37 +5750,40 @@
       <c r="S71">
         <v>-0.19321518025723419</v>
       </c>
-      <c r="T71" s="3">
+      <c r="T71">
         <v>-1.015463223831031</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U71">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G72" t="s">
-        <v>132</v>
-      </c>
-      <c r="H72" s="3">
+        <v>133</v>
+      </c>
+      <c r="H72" s="2">
         <v>0.7639999999999999</v>
       </c>
       <c r="I72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J72">
         <v>0.5</v>
@@ -5585,7 +5803,7 @@
       <c r="O72">
         <v>0.46447140522875829</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72">
         <v>0.495</v>
       </c>
       <c r="Q72">
@@ -5597,37 +5815,40 @@
       <c r="S72">
         <v>-0.18853370430224939</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72">
         <v>-0.602619516266102</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G73" t="s">
-        <v>131</v>
-      </c>
-      <c r="H73" s="3">
+        <v>132</v>
+      </c>
+      <c r="H73" s="2">
         <v>0.70499999999999985</v>
       </c>
       <c r="I73" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J73">
         <v>0.4</v>
@@ -5647,7 +5868,7 @@
       <c r="O73">
         <v>0.4464924136321195</v>
       </c>
-      <c r="P73" s="3">
+      <c r="P73">
         <v>0.49437500000000001</v>
       </c>
       <c r="Q73">
@@ -5659,99 +5880,105 @@
       <c r="S73">
         <v>-0.21487840556699769</v>
       </c>
-      <c r="T73" s="3">
+      <c r="T73">
         <v>-0.66815697495732396</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F74" s="3" t="s">
+      <c r="U73">
+        <v>-0.19047619047619049</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.96400000000000008</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1</v>
+      </c>
+      <c r="N74" s="2">
+        <v>1</v>
+      </c>
+      <c r="O74" s="2">
+        <v>0.94133333333333324</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>0.9588888888888889</v>
+      </c>
+      <c r="R74" s="2">
+        <v>0.94562500000000005</v>
+      </c>
+      <c r="S74" s="2">
+        <v>-3.292543085129627E-11</v>
+      </c>
+      <c r="T74" s="2">
+        <v>-2.147663721461202E-6</v>
+      </c>
+      <c r="U74" s="2">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" t="s">
         <v>95</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H74" s="3">
-        <v>0.96400000000000008</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J74" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="K74" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="L74" s="3">
-        <v>1</v>
-      </c>
-      <c r="M74" s="3">
-        <v>1</v>
-      </c>
-      <c r="N74" s="3">
-        <v>1</v>
-      </c>
-      <c r="O74" s="3">
-        <v>0.94133333333333324</v>
-      </c>
-      <c r="P74" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>0.9588888888888889</v>
-      </c>
-      <c r="R74" s="3">
-        <v>0.94562500000000005</v>
-      </c>
-      <c r="S74" s="3">
-        <v>-3.292543085129627E-11</v>
-      </c>
-      <c r="T74" s="3">
-        <v>-2.147663721461202E-6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" t="s">
-        <v>22</v>
-      </c>
-      <c r="C75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" t="s">
-        <v>94</v>
-      </c>
       <c r="G75" t="s">
-        <v>133</v>
-      </c>
-      <c r="H75" s="3">
+        <v>134</v>
+      </c>
+      <c r="H75" s="2">
         <v>0.95900000000000007</v>
       </c>
       <c r="I75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J75">
         <v>0.8</v>
@@ -5771,7 +5998,7 @@
       <c r="O75">
         <v>0.91393008870214754</v>
       </c>
-      <c r="P75" s="3">
+      <c r="P75">
         <v>0.96437499999999998</v>
       </c>
       <c r="Q75">
@@ -5783,37 +6010,40 @@
       <c r="S75">
         <v>-4.2529945171821958E-11</v>
       </c>
-      <c r="T75" s="3">
+      <c r="T75">
         <v>-2.093928654064875E-6</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U75">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G76" t="s">
-        <v>128</v>
-      </c>
-      <c r="H76" s="3">
+        <v>129</v>
+      </c>
+      <c r="H76" s="2">
         <v>0.94900000000000018</v>
       </c>
       <c r="I76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J76">
         <v>0.8</v>
@@ -5833,7 +6063,7 @@
       <c r="O76">
         <v>0.90455532212885148</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76">
         <v>0.89687499999999998</v>
       </c>
       <c r="Q76">
@@ -5845,37 +6075,40 @@
       <c r="S76">
         <v>0</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76">
         <v>-9.9920072216264128E-16</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U76">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G77" t="s">
-        <v>127</v>
-      </c>
-      <c r="H77" s="3">
+        <v>128</v>
+      </c>
+      <c r="H77" s="2">
         <v>0.94700000000000006</v>
       </c>
       <c r="I77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J77">
         <v>0.7</v>
@@ -5895,7 +6128,7 @@
       <c r="O77">
         <v>0.90421181677799323</v>
       </c>
-      <c r="P77" s="3">
+      <c r="P77">
         <v>0.97812500000000002</v>
       </c>
       <c r="Q77">
@@ -5907,37 +6140,40 @@
       <c r="S77">
         <v>-6.9613111923983286E-4</v>
       </c>
-      <c r="T77" s="3">
+      <c r="T77">
         <v>-8.9176713648544941E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U77">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G78" t="s">
-        <v>133</v>
-      </c>
-      <c r="H78" s="3">
+        <v>134</v>
+      </c>
+      <c r="H78" s="2">
         <v>0.92100000000000026</v>
       </c>
       <c r="I78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J78">
         <v>0.6</v>
@@ -5957,7 +6193,7 @@
       <c r="O78">
         <v>0.85355193744164326</v>
       </c>
-      <c r="P78" s="3">
+      <c r="P78">
         <v>0.89937500000000004</v>
       </c>
       <c r="Q78">
@@ -5969,37 +6205,40 @@
       <c r="S78">
         <v>-9.9995610965827986E-2</v>
       </c>
-      <c r="T78" s="3">
+      <c r="T78">
         <v>-1.0725454970378969</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U78">
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G79" t="s">
-        <v>128</v>
-      </c>
-      <c r="H79" s="3">
+        <v>129</v>
+      </c>
+      <c r="H79" s="2">
         <v>0.88700000000000034</v>
       </c>
       <c r="I79" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J79">
         <v>0.6</v>
@@ -6019,7 +6258,7 @@
       <c r="O79">
         <v>0.80764472455648917</v>
       </c>
-      <c r="P79" s="3">
+      <c r="P79">
         <v>0.81499999999999995</v>
       </c>
       <c r="Q79">
@@ -6031,37 +6270,40 @@
       <c r="S79">
         <v>-0.1</v>
       </c>
-      <c r="T79" s="3">
+      <c r="T79">
         <v>-3.4538776394910689</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U79">
+        <v>0.34782608695652167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G80" t="s">
-        <v>131</v>
-      </c>
-      <c r="H80" s="3">
+        <v>132</v>
+      </c>
+      <c r="H80" s="2">
         <v>0.879</v>
       </c>
       <c r="I80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J80">
         <v>0.5</v>
@@ -6081,7 +6323,7 @@
       <c r="O80">
         <v>0.81264718451483153</v>
       </c>
-      <c r="P80" s="3">
+      <c r="P80">
         <v>0.93312499999999998</v>
       </c>
       <c r="Q80">
@@ -6093,37 +6335,40 @@
       <c r="S80">
         <v>-8.7924531963887526E-2</v>
       </c>
-      <c r="T80" s="3">
+      <c r="T80">
         <v>-0.2676205918608634</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U80">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G81" t="s">
-        <v>130</v>
-      </c>
-      <c r="H81" s="3">
+        <v>131</v>
+      </c>
+      <c r="H81" s="2">
         <v>0.84000000000000019</v>
       </c>
       <c r="I81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J81">
         <v>0.6</v>
@@ -6143,7 +6388,7 @@
       <c r="O81">
         <v>0.65719117647058822</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81">
         <v>0.79937499999999995</v>
       </c>
       <c r="Q81">
@@ -6155,37 +6400,40 @@
       <c r="S81">
         <v>-0.122</v>
       </c>
-      <c r="T81" s="3">
+      <c r="T81">
         <v>-0.34624303734425432</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U81">
+        <v>0.34782608695652167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G82" t="s">
-        <v>132</v>
-      </c>
-      <c r="H82" s="3">
+        <v>133</v>
+      </c>
+      <c r="H82" s="2">
         <v>0.80400000000000016</v>
       </c>
       <c r="I82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J82">
         <v>0.5</v>
@@ -6205,7 +6453,7 @@
       <c r="O82">
         <v>0.71159987969546779</v>
       </c>
-      <c r="P82" s="3">
+      <c r="P82">
         <v>0.83843749999999995</v>
       </c>
       <c r="Q82">
@@ -6217,37 +6465,40 @@
       <c r="S82">
         <v>-0.19523588009205359</v>
       </c>
-      <c r="T82" s="3">
+      <c r="T82">
         <v>-2.282735928359179</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U82">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G83" t="s">
-        <v>126</v>
-      </c>
-      <c r="H83" s="3">
+        <v>127</v>
+      </c>
+      <c r="H83" s="2">
         <v>0.80199999999999994</v>
       </c>
       <c r="I83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J83">
         <v>0.7</v>
@@ -6267,7 +6518,7 @@
       <c r="O83">
         <v>0.4638684640522876</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83">
         <v>0.84031250000000002</v>
       </c>
       <c r="Q83">
@@ -6279,37 +6530,40 @@
       <c r="S83">
         <v>-0.12828000000000001</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83">
         <v>-0.40758172911862839</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>129</v>
-      </c>
-      <c r="H84" s="3">
+        <v>130</v>
+      </c>
+      <c r="H84" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I84" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J84">
         <v>0.8</v>
@@ -6329,7 +6583,7 @@
       <c r="O84">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P84" s="3">
+      <c r="P84">
         <v>0.92062500000000003</v>
       </c>
       <c r="Q84">
@@ -6339,39 +6593,42 @@
         <v>0.5</v>
       </c>
       <c r="S84">
-        <v>-0.1008584799942603</v>
-      </c>
-      <c r="T84" s="3">
-        <v>-0.30574536743451702</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-9.902151600363196E-2</v>
+      </c>
+      <c r="T84">
+        <v>-0.29659888607939039</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G85" t="s">
-        <v>129</v>
-      </c>
-      <c r="H85" s="3">
+        <v>130</v>
+      </c>
+      <c r="H85" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I85" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J85">
         <v>0.8</v>
@@ -6391,8 +6648,8 @@
       <c r="O85">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P85" s="3">
-        <v>0.51656250000000004</v>
+      <c r="P85">
+        <v>0.52124999999999999</v>
       </c>
       <c r="Q85">
         <v>0.39999999999999991</v>
@@ -6401,39 +6658,42 @@
         <v>0.5</v>
       </c>
       <c r="S85">
-        <v>-0.16124034582198421</v>
-      </c>
-      <c r="T85" s="3">
-        <v>-0.50350180956131008</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-0.1608226661863181</v>
+      </c>
+      <c r="T85">
+        <v>-0.50256148016280999</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>134</v>
-      </c>
-      <c r="H86" s="3">
+        <v>135</v>
+      </c>
+      <c r="H86" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I86" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>0.8</v>
@@ -6453,7 +6713,7 @@
       <c r="O86">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P86" s="3">
+      <c r="P86">
         <v>0.5</v>
       </c>
       <c r="Q86">
@@ -6465,37 +6725,40 @@
       <c r="S86">
         <v>-0.2</v>
       </c>
-      <c r="T86" s="3">
+      <c r="T86">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>134</v>
-      </c>
-      <c r="H87" s="3">
+        <v>135</v>
+      </c>
+      <c r="H87" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I87" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J87">
         <v>0.8</v>
@@ -6515,7 +6778,7 @@
       <c r="O87">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P87" s="3">
+      <c r="P87">
         <v>0.5</v>
       </c>
       <c r="Q87">
@@ -6527,37 +6790,40 @@
       <c r="S87">
         <v>-0.2</v>
       </c>
-      <c r="T87" s="3">
+      <c r="T87">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>130</v>
-      </c>
-      <c r="H88" s="3">
+        <v>131</v>
+      </c>
+      <c r="H88" s="2">
         <v>0.79800000000000015</v>
       </c>
       <c r="I88" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J88">
         <v>0.6</v>
@@ -6577,7 +6843,7 @@
       <c r="O88">
         <v>0.567841503267974</v>
       </c>
-      <c r="P88" s="3">
+      <c r="P88">
         <v>0.6590625</v>
       </c>
       <c r="Q88">
@@ -6589,37 +6855,40 @@
       <c r="S88">
         <v>-0.158</v>
       </c>
-      <c r="T88" s="3">
+      <c r="T88">
         <v>-2.1092591898438711</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U88">
+        <v>9.0909090909090939E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G89" t="s">
-        <v>126</v>
-      </c>
-      <c r="H89" s="3">
+        <v>127</v>
+      </c>
+      <c r="H89" s="2">
         <v>0.79200000000000004</v>
       </c>
       <c r="I89" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J89">
         <v>0.6</v>
@@ -6639,7 +6908,7 @@
       <c r="O89">
         <v>0.47271241830065369</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89">
         <v>0.38374999999999998</v>
       </c>
       <c r="Q89">
@@ -6651,37 +6920,40 @@
       <c r="S89">
         <v>-0.18647</v>
       </c>
-      <c r="T89" s="3">
+      <c r="T89">
         <v>-0.59721563037614911</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U89">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G90" t="s">
-        <v>132</v>
-      </c>
-      <c r="H90" s="3">
+        <v>133</v>
+      </c>
+      <c r="H90" s="2">
         <v>0.7609999999999999</v>
       </c>
       <c r="I90" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J90">
         <v>0.6</v>
@@ -6701,7 +6973,7 @@
       <c r="O90">
         <v>0.43337745098039232</v>
       </c>
-      <c r="P90" s="3">
+      <c r="P90">
         <v>0.39</v>
       </c>
       <c r="Q90">
@@ -6713,37 +6985,40 @@
       <c r="S90">
         <v>-0.1953426243983121</v>
       </c>
-      <c r="T90" s="3">
+      <c r="T90">
         <v>-0.6198369937808601</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G91" t="s">
-        <v>131</v>
-      </c>
-      <c r="H91" s="3">
+        <v>132</v>
+      </c>
+      <c r="H91" s="2">
         <v>0.74999999999999989</v>
       </c>
       <c r="I91" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J91">
         <v>0.5</v>
@@ -6763,7 +7038,7 @@
       <c r="O91">
         <v>0.49243907563025208</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91">
         <v>0.66187499999999999</v>
       </c>
       <c r="Q91">
@@ -6775,99 +7050,105 @@
       <c r="S91">
         <v>-0.20386205389699821</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91">
         <v>-2.9306795778751069</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H92" s="3">
+      <c r="U91">
+        <v>-0.36363636363636348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H92" s="2">
         <v>0.996</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I92" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K92" s="2">
+        <v>1</v>
+      </c>
+      <c r="L92" s="2">
+        <v>1</v>
+      </c>
+      <c r="M92" s="2">
+        <v>1</v>
+      </c>
+      <c r="N92" s="2">
+        <v>1</v>
+      </c>
+      <c r="O92" s="2">
+        <v>0.99420833333333336</v>
+      </c>
+      <c r="P92" s="2">
+        <v>0.99937500000000001</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>0.99354166666666655</v>
+      </c>
+      <c r="R92" s="2">
+        <v>0.99562499999999998</v>
+      </c>
+      <c r="S92" s="2">
+        <v>-7.3670966205009761E-8</v>
+      </c>
+      <c r="T92" s="2">
+        <v>-9.9745601388495685E-5</v>
+      </c>
+      <c r="U92" s="2">
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" t="s">
+        <v>101</v>
+      </c>
+      <c r="G93" t="s">
+        <v>128</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0.9930000000000001</v>
+      </c>
+      <c r="I93" t="s">
         <v>167</v>
-      </c>
-      <c r="J92" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="K92" s="3">
-        <v>1</v>
-      </c>
-      <c r="L92" s="3">
-        <v>1</v>
-      </c>
-      <c r="M92" s="3">
-        <v>1</v>
-      </c>
-      <c r="N92" s="3">
-        <v>1</v>
-      </c>
-      <c r="O92" s="3">
-        <v>0.99420833333333336</v>
-      </c>
-      <c r="P92" s="3">
-        <v>0.99937500000000001</v>
-      </c>
-      <c r="Q92" s="3">
-        <v>0.99354166666666655</v>
-      </c>
-      <c r="R92" s="3">
-        <v>0.99562499999999998</v>
-      </c>
-      <c r="S92" s="3">
-        <v>-7.3670966205009761E-8</v>
-      </c>
-      <c r="T92" s="3">
-        <v>-9.9745601388495685E-5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>20</v>
-      </c>
-      <c r="B93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C93" t="s">
-        <v>31</v>
-      </c>
-      <c r="D93" t="s">
-        <v>33</v>
-      </c>
-      <c r="E93" t="s">
-        <v>50</v>
-      </c>
-      <c r="F93" t="s">
-        <v>100</v>
-      </c>
-      <c r="G93" t="s">
-        <v>127</v>
-      </c>
-      <c r="H93" s="3">
-        <v>0.9930000000000001</v>
-      </c>
-      <c r="I93" t="s">
-        <v>166</v>
       </c>
       <c r="J93">
         <v>0.9</v>
@@ -6887,7 +7168,7 @@
       <c r="O93">
         <v>0.98878431372549014</v>
       </c>
-      <c r="P93" s="3">
+      <c r="P93">
         <v>0.99875000000000003</v>
       </c>
       <c r="Q93">
@@ -6899,37 +7180,40 @@
       <c r="S93">
         <v>-5.6993465794472977E-8</v>
       </c>
-      <c r="T93" s="3">
+      <c r="T93">
         <v>-1.1403679122842991E-4</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G94" t="s">
-        <v>133</v>
-      </c>
-      <c r="H94" s="3">
+        <v>134</v>
+      </c>
+      <c r="H94" s="2">
         <v>0.95500000000000018</v>
       </c>
       <c r="I94" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J94">
         <v>0.7</v>
@@ -6949,7 +7233,7 @@
       <c r="O94">
         <v>0.92070061229620037</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94">
         <v>0.91125</v>
       </c>
       <c r="Q94">
@@ -6961,37 +7245,40 @@
       <c r="S94">
         <v>-1.551421790529339E-16</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94">
         <v>-9.9644867355917226E-9</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U94">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F95" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
-      </c>
-      <c r="H95" s="3">
+        <v>129</v>
+      </c>
+      <c r="H95" s="2">
         <v>0.92900000000000016</v>
       </c>
       <c r="I95" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J95">
         <v>0.6</v>
@@ -7011,7 +7298,7 @@
       <c r="O95">
         <v>0.87848340874811459</v>
       </c>
-      <c r="P95" s="3">
+      <c r="P95">
         <v>0.88062499999999999</v>
       </c>
       <c r="Q95">
@@ -7023,37 +7310,40 @@
       <c r="S95">
         <v>-0.1</v>
       </c>
-      <c r="T95" s="3">
+      <c r="T95">
         <v>-3.4538776394910689</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U95">
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G96" t="s">
-        <v>133</v>
-      </c>
-      <c r="H96" s="3">
+        <v>134</v>
+      </c>
+      <c r="H96" s="2">
         <v>0.91900000000000037</v>
       </c>
       <c r="I96" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J96">
         <v>0.6</v>
@@ -7073,7 +7363,7 @@
       <c r="O96">
         <v>0.84666223155929021</v>
       </c>
-      <c r="P96" s="3">
+      <c r="P96">
         <v>0.90625</v>
       </c>
       <c r="Q96">
@@ -7085,37 +7375,40 @@
       <c r="S96">
         <v>-9.9999943159110427E-2</v>
       </c>
-      <c r="T96" s="3">
+      <c r="T96">
         <v>-0.61170591754764336</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U96">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G97" t="s">
-        <v>130</v>
-      </c>
-      <c r="H97" s="3">
+        <v>131</v>
+      </c>
+      <c r="H97" s="2">
         <v>0.89900000000000024</v>
       </c>
       <c r="I97" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J97">
         <v>0.7</v>
@@ -7135,7 +7428,7 @@
       <c r="O97">
         <v>0.78080392156862732</v>
       </c>
-      <c r="P97" s="3">
+      <c r="P97">
         <v>0.94125000000000003</v>
       </c>
       <c r="Q97">
@@ -7147,37 +7440,40 @@
       <c r="S97">
         <v>-7.2000000000000008E-2</v>
       </c>
-      <c r="T97" s="3">
+      <c r="T97">
         <v>-0.2108405272891439</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U97">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G98" t="s">
-        <v>126</v>
-      </c>
-      <c r="H98" s="3">
+        <v>127</v>
+      </c>
+      <c r="H98" s="2">
         <v>0.89300000000000013</v>
       </c>
       <c r="I98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J98">
         <v>0.6</v>
@@ -7197,7 +7493,7 @@
       <c r="O98">
         <v>0.79246486928104565</v>
       </c>
-      <c r="P98" s="3">
+      <c r="P98">
         <v>0.92</v>
       </c>
       <c r="Q98">
@@ -7209,37 +7505,40 @@
       <c r="S98">
         <v>-8.9374999999999996E-2</v>
       </c>
-      <c r="T98" s="3">
+      <c r="T98">
         <v>-0.29203459062691312</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U98">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G99" t="s">
-        <v>128</v>
-      </c>
-      <c r="H99" s="3">
+        <v>129</v>
+      </c>
+      <c r="H99" s="2">
         <v>0.88600000000000023</v>
       </c>
       <c r="I99" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J99">
         <v>0.7</v>
@@ -7259,7 +7558,7 @@
       <c r="O99">
         <v>0.80244876283846844</v>
       </c>
-      <c r="P99" s="3">
+      <c r="P99">
         <v>0.8125</v>
       </c>
       <c r="Q99">
@@ -7271,37 +7570,40 @@
       <c r="S99">
         <v>-0.1</v>
       </c>
-      <c r="T99" s="3">
+      <c r="T99">
         <v>-3.4538776394910689</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U99">
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G100" t="s">
-        <v>130</v>
-      </c>
-      <c r="H100" s="3">
+        <v>131</v>
+      </c>
+      <c r="H100" s="2">
         <v>0.877</v>
       </c>
       <c r="I100" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J100">
         <v>0.7</v>
@@ -7321,7 +7623,7 @@
       <c r="O100">
         <v>0.74917892156862731</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100">
         <v>0.94468750000000001</v>
       </c>
       <c r="Q100">
@@ -7333,37 +7635,40 @@
       <c r="S100">
         <v>-7.5999999999999998E-2</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100">
         <v>-0.22726573063774561</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U100">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G101" t="s">
-        <v>132</v>
-      </c>
-      <c r="H101" s="3">
+        <v>133</v>
+      </c>
+      <c r="H101" s="2">
         <v>0.87000000000000011</v>
       </c>
       <c r="I101" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J101">
         <v>0.5</v>
@@ -7383,7 +7688,7 @@
       <c r="O101">
         <v>0.80910516770810892</v>
       </c>
-      <c r="P101" s="3">
+      <c r="P101">
         <v>0.90062500000000001</v>
       </c>
       <c r="Q101">
@@ -7395,37 +7700,40 @@
       <c r="S101">
         <v>-0.1</v>
       </c>
-      <c r="T101" s="3">
+      <c r="T101">
         <v>-3.453957599234089</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F102" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G102" t="s">
-        <v>126</v>
-      </c>
-      <c r="H102" s="3">
+        <v>127</v>
+      </c>
+      <c r="H102" s="2">
         <v>0.80400000000000005</v>
       </c>
       <c r="I102" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J102">
         <v>0.7</v>
@@ -7445,7 +7753,7 @@
       <c r="O102">
         <v>0.49632352941176477</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102">
         <v>0.854375</v>
       </c>
       <c r="Q102">
@@ -7457,37 +7765,40 @@
       <c r="S102">
         <v>-0.12177499999999999</v>
       </c>
-      <c r="T102" s="3">
+      <c r="T102">
         <v>-0.39088025534269849</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F103" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G103" t="s">
-        <v>129</v>
-      </c>
-      <c r="H103" s="3">
+        <v>130</v>
+      </c>
+      <c r="H103" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I103" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J103">
         <v>0.8</v>
@@ -7507,7 +7818,7 @@
       <c r="O103">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P103" s="3">
+      <c r="P103">
         <v>0.95874999999999999</v>
       </c>
       <c r="Q103">
@@ -7517,39 +7828,42 @@
         <v>0.5</v>
       </c>
       <c r="S103">
-        <v>-5.5716168898725077E-2</v>
-      </c>
-      <c r="T103" s="3">
-        <v>-0.202691540861275</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-5.7297504748010347E-2</v>
+      </c>
+      <c r="T103">
+        <v>-0.1994806634273813</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F104" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G104" t="s">
-        <v>134</v>
-      </c>
-      <c r="H104" s="3">
+        <v>135</v>
+      </c>
+      <c r="H104" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I104" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J104">
         <v>0.8</v>
@@ -7569,7 +7883,7 @@
       <c r="O104">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P104" s="3">
+      <c r="P104">
         <v>0.5</v>
       </c>
       <c r="Q104">
@@ -7581,37 +7895,40 @@
       <c r="S104">
         <v>-0.2</v>
       </c>
-      <c r="T104" s="3">
+      <c r="T104">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F105" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G105" t="s">
-        <v>134</v>
-      </c>
-      <c r="H105" s="3">
+        <v>135</v>
+      </c>
+      <c r="H105" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I105" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J105">
         <v>0.8</v>
@@ -7631,7 +7948,7 @@
       <c r="O105">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P105" s="3">
+      <c r="P105">
         <v>0.5</v>
       </c>
       <c r="Q105">
@@ -7643,37 +7960,40 @@
       <c r="S105">
         <v>-0.2</v>
       </c>
-      <c r="T105" s="3">
+      <c r="T105">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F106" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G106" t="s">
-        <v>129</v>
-      </c>
-      <c r="H106" s="3">
+        <v>130</v>
+      </c>
+      <c r="H106" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I106" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J106">
         <v>0.8</v>
@@ -7693,8 +8013,8 @@
       <c r="O106">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P106" s="3">
-        <v>0.47749999999999998</v>
+      <c r="P106">
+        <v>0.45500000000000002</v>
       </c>
       <c r="Q106">
         <v>0.39999999999999991</v>
@@ -7703,39 +8023,42 @@
         <v>0.5</v>
       </c>
       <c r="S106">
-        <v>-0.16159444055236771</v>
-      </c>
-      <c r="T106" s="3">
-        <v>-0.50193581959071953</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-0.1605161584750637</v>
+      </c>
+      <c r="T106">
+        <v>-0.50069991736299735</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F107" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G107" t="s">
-        <v>132</v>
-      </c>
-      <c r="H107" s="3">
+        <v>133</v>
+      </c>
+      <c r="H107" s="2">
         <v>0.76800000000000002</v>
       </c>
       <c r="I107" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J107">
         <v>0.5</v>
@@ -7755,7 +8078,7 @@
       <c r="O107">
         <v>0.43365196078431378</v>
       </c>
-      <c r="P107" s="3">
+      <c r="P107">
         <v>0.16875000000000001</v>
       </c>
       <c r="Q107">
@@ -7767,37 +8090,40 @@
       <c r="S107">
         <v>-0.20158865649839169</v>
       </c>
-      <c r="T107" s="3">
+      <c r="T107">
         <v>-0.6359153627095766</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F108" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G108" t="s">
-        <v>131</v>
-      </c>
-      <c r="H108" s="3">
+        <v>132</v>
+      </c>
+      <c r="H108" s="2">
         <v>0.72900000000000009</v>
       </c>
       <c r="I108" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J108">
         <v>0.4</v>
@@ -7817,7 +8143,7 @@
       <c r="O108">
         <v>0.48556372549019622</v>
       </c>
-      <c r="P108" s="3">
+      <c r="P108">
         <v>0.62562499999999999</v>
       </c>
       <c r="Q108">
@@ -7829,37 +8155,40 @@
       <c r="S108">
         <v>-0.26696713985132681</v>
       </c>
-      <c r="T108" s="3">
+      <c r="T108">
         <v>-3.0917988437521879</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U108">
+        <v>-0.52173913043478271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F109" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G109" t="s">
-        <v>131</v>
-      </c>
-      <c r="H109" s="3">
+        <v>132</v>
+      </c>
+      <c r="H109" s="2">
         <v>0.72799999999999987</v>
       </c>
       <c r="I109" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J109">
         <v>0.5</v>
@@ -7879,7 +8208,7 @@
       <c r="O109">
         <v>0.4450065359477125</v>
       </c>
-      <c r="P109" s="3">
+      <c r="P109">
         <v>0.37812499999999999</v>
       </c>
       <c r="Q109">
@@ -7891,99 +8220,105 @@
       <c r="S109">
         <v>-0.21254846806167371</v>
       </c>
-      <c r="T109" s="3">
+      <c r="T109">
         <v>-0.66580346211999564</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H110" s="3">
+      <c r="U109">
+        <v>-0.36363636363636348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H110" s="2">
         <v>0.95700000000000018</v>
       </c>
-      <c r="I110" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J110" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="K110" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="L110" s="3">
-        <v>1</v>
-      </c>
-      <c r="M110" s="3">
-        <v>1</v>
-      </c>
-      <c r="N110" s="3">
-        <v>1</v>
-      </c>
-      <c r="O110" s="3">
+      <c r="I110" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J110" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K110" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L110" s="2">
+        <v>1</v>
+      </c>
+      <c r="M110" s="2">
+        <v>1</v>
+      </c>
+      <c r="N110" s="2">
+        <v>1</v>
+      </c>
+      <c r="O110" s="2">
         <v>0.92889764239028949</v>
       </c>
-      <c r="P110" s="3">
+      <c r="P110" s="2">
         <v>0.984375</v>
       </c>
-      <c r="Q110" s="3">
+      <c r="Q110" s="2">
         <v>0.93668055555555541</v>
       </c>
-      <c r="R110" s="3">
+      <c r="R110" s="2">
         <v>0.93937499999999996</v>
       </c>
-      <c r="S110" s="3">
+      <c r="S110" s="2">
         <v>-1.5249577626240679E-8</v>
       </c>
-      <c r="T110" s="3">
+      <c r="T110" s="2">
         <v>-5.8117894160671557E-5</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U110" s="2">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G111" t="s">
-        <v>133</v>
-      </c>
-      <c r="H111" s="3">
+        <v>134</v>
+      </c>
+      <c r="H111" s="2">
         <v>0.95200000000000018</v>
       </c>
       <c r="I111" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J111">
         <v>0.6</v>
@@ -8003,7 +8338,7 @@
       <c r="O111">
         <v>0.91163655462184867</v>
       </c>
-      <c r="P111" s="3">
+      <c r="P111">
         <v>0.95187500000000003</v>
       </c>
       <c r="Q111">
@@ -8015,37 +8350,40 @@
       <c r="S111">
         <v>-3.6857692998794951E-9</v>
       </c>
-      <c r="T111" s="3">
+      <c r="T111">
         <v>-1.947352759970923E-5</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U111">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G112" t="s">
-        <v>127</v>
-      </c>
-      <c r="H112" s="3">
+        <v>128</v>
+      </c>
+      <c r="H112" s="2">
         <v>0.94500000000000017</v>
       </c>
       <c r="I112" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J112">
         <v>0.8</v>
@@ -8065,7 +8403,7 @@
       <c r="O112">
         <v>0.90089437441643316</v>
       </c>
-      <c r="P112" s="3">
+      <c r="P112">
         <v>0.984375</v>
       </c>
       <c r="Q112">
@@ -8077,37 +8415,40 @@
       <c r="S112">
         <v>-4.0642402380603653E-4</v>
       </c>
-      <c r="T112" s="3">
+      <c r="T112">
         <v>-7.1957341900362468E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U112">
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G113" t="s">
-        <v>126</v>
-      </c>
-      <c r="H113" s="3">
+        <v>127</v>
+      </c>
+      <c r="H113" s="2">
         <v>0.91800000000000026</v>
       </c>
       <c r="I113" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J113">
         <v>0.7</v>
@@ -8127,7 +8468,7 @@
       <c r="O113">
         <v>0.82366993464052274</v>
       </c>
-      <c r="P113" s="3">
+      <c r="P113">
         <v>0.95156249999999998</v>
       </c>
       <c r="Q113">
@@ -8139,37 +8480,40 @@
       <c r="S113">
         <v>-6.4104999999999995E-2</v>
       </c>
-      <c r="T113" s="3">
+      <c r="T113">
         <v>-0.23116901647496249</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U113">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G114" t="s">
-        <v>128</v>
-      </c>
-      <c r="H114" s="3">
+        <v>129</v>
+      </c>
+      <c r="H114" s="2">
         <v>0.91300000000000026</v>
       </c>
       <c r="I114" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J114">
         <v>0.5</v>
@@ -8189,7 +8533,7 @@
       <c r="O114">
         <v>0.84123155929038274</v>
       </c>
-      <c r="P114" s="3">
+      <c r="P114">
         <v>0.84062499999999996</v>
       </c>
       <c r="Q114">
@@ -8201,37 +8545,40 @@
       <c r="S114">
         <v>-0.1</v>
       </c>
-      <c r="T114" s="3">
+      <c r="T114">
         <v>-3.4538776394910689</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U114">
+        <v>0.78260869565217384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F115" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G115" t="s">
-        <v>133</v>
-      </c>
-      <c r="H115" s="3">
+        <v>134</v>
+      </c>
+      <c r="H115" s="2">
         <v>0.90900000000000025</v>
       </c>
       <c r="I115" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J115">
         <v>0.6</v>
@@ -8251,7 +8598,7 @@
       <c r="O115">
         <v>0.82641631652661052</v>
       </c>
-      <c r="P115" s="3">
+      <c r="P115">
         <v>0.88062499999999999</v>
       </c>
       <c r="Q115">
@@ -8263,37 +8610,40 @@
       <c r="S115">
         <v>-9.9999998719272343E-2</v>
       </c>
-      <c r="T115" s="3">
+      <c r="T115">
         <v>-1.6621016543989831</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U115">
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G116" t="s">
-        <v>128</v>
-      </c>
-      <c r="H116" s="3">
+        <v>129</v>
+      </c>
+      <c r="H116" s="2">
         <v>0.87</v>
       </c>
       <c r="I116" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J116">
         <v>0.6</v>
@@ -8313,7 +8663,7 @@
       <c r="O116">
         <v>0.77819851145586438</v>
       </c>
-      <c r="P116" s="3">
+      <c r="P116">
         <v>0.79500000000000004</v>
       </c>
       <c r="Q116">
@@ -8325,37 +8675,40 @@
       <c r="S116">
         <v>-0.1</v>
       </c>
-      <c r="T116" s="3">
+      <c r="T116">
         <v>-3.453957599234089</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U116">
+        <v>0.34782608695652167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G117" t="s">
-        <v>130</v>
-      </c>
-      <c r="H117" s="3">
+        <v>131</v>
+      </c>
+      <c r="H117" s="2">
         <v>0.85000000000000009</v>
       </c>
       <c r="I117" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J117">
         <v>0.6</v>
@@ -8375,7 +8728,7 @@
       <c r="O117">
         <v>0.70700490196078425</v>
       </c>
-      <c r="P117" s="3">
+      <c r="P117">
         <v>0.81187500000000001</v>
       </c>
       <c r="Q117">
@@ -8387,37 +8740,40 @@
       <c r="S117">
         <v>-0.112</v>
       </c>
-      <c r="T117" s="3">
+      <c r="T117">
         <v>-0.32682505533399292</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U117">
+        <v>0.34782608695652167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G118" t="s">
-        <v>126</v>
-      </c>
-      <c r="H118" s="3">
+        <v>127</v>
+      </c>
+      <c r="H118" s="2">
         <v>0.8</v>
       </c>
       <c r="I118" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J118">
         <v>0.7</v>
@@ -8437,7 +8793,7 @@
       <c r="O118">
         <v>0.45424836601307189</v>
       </c>
-      <c r="P118" s="3">
+      <c r="P118">
         <v>0.78468749999999998</v>
       </c>
       <c r="Q118">
@@ -8449,37 +8805,40 @@
       <c r="S118">
         <v>-0.13794000000000001</v>
       </c>
-      <c r="T118" s="3">
+      <c r="T118">
         <v>-0.43042947935939863</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U118">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G119" t="s">
-        <v>129</v>
-      </c>
-      <c r="H119" s="3">
+        <v>130</v>
+      </c>
+      <c r="H119" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I119" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J119">
         <v>0.8</v>
@@ -8499,7 +8858,7 @@
       <c r="O119">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P119" s="3">
+      <c r="P119">
         <v>0.86187499999999995</v>
       </c>
       <c r="Q119">
@@ -8509,39 +8868,42 @@
         <v>0.5</v>
       </c>
       <c r="S119">
-        <v>-0.1155575722678419</v>
-      </c>
-      <c r="T119" s="3">
-        <v>-0.36116111460628408</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-0.1134684631331139</v>
+      </c>
+      <c r="T119">
+        <v>-0.35395643253831383</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G120" t="s">
-        <v>134</v>
-      </c>
-      <c r="H120" s="3">
+        <v>135</v>
+      </c>
+      <c r="H120" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J120">
         <v>0.8</v>
@@ -8561,7 +8923,7 @@
       <c r="O120">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P120" s="3">
+      <c r="P120">
         <v>0.5</v>
       </c>
       <c r="Q120">
@@ -8573,37 +8935,40 @@
       <c r="S120">
         <v>-0.2</v>
       </c>
-      <c r="T120" s="3">
+      <c r="T120">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G121" t="s">
-        <v>134</v>
-      </c>
-      <c r="H121" s="3">
+        <v>135</v>
+      </c>
+      <c r="H121" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I121" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J121">
         <v>0.8</v>
@@ -8623,7 +8988,7 @@
       <c r="O121">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P121" s="3">
+      <c r="P121">
         <v>0.5</v>
       </c>
       <c r="Q121">
@@ -8635,37 +9000,40 @@
       <c r="S121">
         <v>-0.2</v>
       </c>
-      <c r="T121" s="3">
+      <c r="T121">
         <v>-6.9077552789821368</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G122" t="s">
-        <v>129</v>
-      </c>
-      <c r="H122" s="3">
+        <v>130</v>
+      </c>
+      <c r="H122" s="2">
         <v>0.79999999999999982</v>
       </c>
       <c r="I122" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J122">
         <v>0.8</v>
@@ -8685,8 +9053,8 @@
       <c r="O122">
         <v>0.44444444444444448</v>
       </c>
-      <c r="P122" s="3">
-        <v>0.48</v>
+      <c r="P122">
+        <v>0.49125000000000002</v>
       </c>
       <c r="Q122">
         <v>0.39999999999999991</v>
@@ -8695,39 +9063,42 @@
         <v>0.5</v>
       </c>
       <c r="S122">
-        <v>-0.1605367223192509</v>
-      </c>
-      <c r="T122" s="3">
-        <v>-0.50102518483131808</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.45">
+        <v>-0.16152210614143789</v>
+      </c>
+      <c r="T122">
+        <v>-0.50089680351181376</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G123" t="s">
-        <v>130</v>
-      </c>
-      <c r="H123" s="3">
+        <v>131</v>
+      </c>
+      <c r="H123" s="2">
         <v>0.79800000000000015</v>
       </c>
       <c r="I123" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J123">
         <v>0.6</v>
@@ -8747,7 +9118,7 @@
       <c r="O123">
         <v>0.56683496732026151</v>
       </c>
-      <c r="P123" s="3">
+      <c r="P123">
         <v>0.64937500000000004</v>
       </c>
       <c r="Q123">
@@ -8759,37 +9130,40 @@
       <c r="S123">
         <v>-0.16</v>
       </c>
-      <c r="T123" s="3">
+      <c r="T123">
         <v>-3.5719032672619311</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U123">
+        <v>9.0909090909090939E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G124" t="s">
-        <v>132</v>
-      </c>
-      <c r="H124" s="3">
+        <v>133</v>
+      </c>
+      <c r="H124" s="2">
         <v>0.76299999999999979</v>
       </c>
       <c r="I124" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J124">
         <v>0.5</v>
@@ -8809,7 +9183,7 @@
       <c r="O124">
         <v>0.45709313725490203</v>
       </c>
-      <c r="P124" s="3">
+      <c r="P124">
         <v>0.45750000000000002</v>
       </c>
       <c r="Q124">
@@ -8821,37 +9195,40 @@
       <c r="S124">
         <v>-0.1884482248437894</v>
       </c>
-      <c r="T124" s="3">
+      <c r="T124">
         <v>-0.58801902358357694</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U124">
+        <v>-0.36363636363636348</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G125" t="s">
-        <v>132</v>
-      </c>
-      <c r="H125" s="3">
+        <v>133</v>
+      </c>
+      <c r="H125" s="2">
         <v>0.74299999999999999</v>
       </c>
       <c r="I125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J125">
         <v>0.4</v>
@@ -8871,7 +9248,7 @@
       <c r="O125">
         <v>0.58993061840120664</v>
       </c>
-      <c r="P125" s="3">
+      <c r="P125">
         <v>0.68687500000000001</v>
       </c>
       <c r="Q125">
@@ -8883,37 +9260,40 @@
       <c r="S125">
         <v>-0.21130998339915161</v>
       </c>
-      <c r="T125" s="3">
+      <c r="T125">
         <v>-1.1546273063309069</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U125">
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F126" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G126" t="s">
-        <v>131</v>
-      </c>
-      <c r="H126" s="3">
+        <v>132</v>
+      </c>
+      <c r="H126" s="2">
         <v>0.73299999999999987</v>
       </c>
       <c r="I126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J126">
         <v>0.4</v>
@@ -8933,7 +9313,7 @@
       <c r="O126">
         <v>0.4503897148603031</v>
       </c>
-      <c r="P126" s="3">
+      <c r="P126">
         <v>0.38374999999999998</v>
       </c>
       <c r="Q126">
@@ -8945,37 +9325,40 @@
       <c r="S126">
         <v>-0.20562552848679211</v>
       </c>
-      <c r="T126" s="3">
+      <c r="T126">
         <v>-0.69285110737831201</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G127" t="s">
-        <v>131</v>
-      </c>
-      <c r="H127" s="3">
+        <v>132</v>
+      </c>
+      <c r="H127" s="2">
         <v>0.70499999999999985</v>
       </c>
       <c r="I127" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J127">
         <v>0.4</v>
@@ -8995,7 +9378,7 @@
       <c r="O127">
         <v>0.42793464052287589</v>
       </c>
-      <c r="P127" s="3">
+      <c r="P127">
         <v>0.49875000000000003</v>
       </c>
       <c r="Q127">
@@ -9007,17 +9390,22 @@
       <c r="S127">
         <v>-0.28954896119042989</v>
       </c>
-      <c r="T127" s="3">
+      <c r="T127">
         <v>-5.189633854480757</v>
       </c>
+      <c r="U127">
+        <v>-0.36363636363636348</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T127">
-    <sortCondition ref="A2:A127"/>
-    <sortCondition ref="B2:B127"/>
-    <sortCondition descending="1" ref="H2:H127"/>
-    <sortCondition descending="1" ref="P2:P127"/>
-  </sortState>
+  <autoFilter ref="A1:U127" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U127">
+      <sortCondition ref="A2:A127"/>
+      <sortCondition ref="B2:B127"/>
+      <sortCondition descending="1" ref="H2:H127"/>
+      <sortCondition descending="1" ref="P2:P127"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>